--- a/va_facility_data_2025-02-20/Meridian VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Meridian%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Meridian VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Meridian%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8a0a33d697df40dea98e7b235f72b6a6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3a3a146ce73455b9045bfdab62ac514"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd4178ba0a21b4aea8942023f415221cb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfcd8dd109ffb4acfba579d3c90e82ce2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra8a07b06419d444baf78687aca6053dd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Racd7a246558b4405a3d5fc6bf278b3ff"/>
   </x:sheets>
 </x:workbook>
 </file>
